--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,30 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -94,91 +73,97 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>join</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
@@ -187,19 +172,22 @@
     <t>store</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -560,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,37 +717,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,49 +767,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>37</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5416666666666666</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4506437768240343</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C10">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,95 +1009,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L11">
+        <v>37</v>
+      </c>
+      <c r="M11">
+        <v>37</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
-    </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.3125</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>55</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,45 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>61</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1175,581 +1091,485 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>27</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L15">
+        <v>88</v>
+      </c>
+      <c r="M15">
+        <v>88</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L16">
+        <v>104</v>
+      </c>
+      <c r="M16">
+        <v>104</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>0.72</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>0.6625</v>
+      </c>
+      <c r="L20">
+        <v>106</v>
+      </c>
+      <c r="M20">
+        <v>106</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
+      <c r="K21">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L21">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
         <v>30</v>
       </c>
-      <c r="M14">
+      <c r="M22">
         <v>30</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>0.6109660574412533</v>
+      </c>
+      <c r="L23">
+        <v>234</v>
+      </c>
+      <c r="M23">
+        <v>234</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L24">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>32</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>0.488135593220339</v>
+      </c>
+      <c r="L27">
+        <v>144</v>
+      </c>
+      <c r="M27">
+        <v>144</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>0.4794117647058824</v>
+      </c>
+      <c r="L28">
+        <v>163</v>
+      </c>
+      <c r="M28">
+        <v>163</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>0.4651162790697674</v>
+      </c>
+      <c r="L30">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.2391304347826087</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>35</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.76</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C16">
+      <c r="M30">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>90</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L16">
-        <v>22</v>
-      </c>
-      <c r="M16">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.07526881720430108</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>172</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.72</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L21">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>23</v>
       </c>
-      <c r="M21">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.6384976525821596</v>
-      </c>
-      <c r="L23">
-        <v>136</v>
-      </c>
-      <c r="M23">
-        <v>136</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K31">
+        <v>0.4184100418410042</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K25">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L25">
-        <v>11</v>
-      </c>
-      <c r="M25">
-        <v>11</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="L26">
-        <v>51</v>
-      </c>
-      <c r="M26">
-        <v>51</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27">
-        <v>0.5486111111111112</v>
-      </c>
-      <c r="L27">
-        <v>79</v>
-      </c>
-      <c r="M27">
-        <v>79</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="L28">
-        <v>19</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.4961240310077519</v>
-      </c>
-      <c r="L29">
-        <v>64</v>
-      </c>
-      <c r="M29">
-        <v>64</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="L30">
-        <v>17</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.48</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3421052631578947</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,15 +1607,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.09090909090909091</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L34">
         <v>19</v>
@@ -1813,73 +1633,73 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>190</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.06341463414634146</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.04966139954853273</v>
+        <v>0.09375</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.04126984126984127</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1891,111 +1711,189 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>302</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.03051643192488263</v>
+        <v>0.06163328197226502</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>413</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.02683363148479427</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N39">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1088</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.0102827763496144</v>
+        <v>0.03930635838150289</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N40">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1540</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.01006289308176101</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N41">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1574</v>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L42">
+        <v>91</v>
+      </c>
+      <c r="M42">
+        <v>104</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.02481902792140641</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>0.96</v>
+      </c>
+      <c r="O43">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.01849529780564263</v>
+      </c>
+      <c r="L44">
+        <v>59</v>
+      </c>
+      <c r="M44">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>0.84</v>
+      </c>
+      <c r="O44">
+        <v>0.16</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3131</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,126 +43,126 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -175,13 +175,16 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -556,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6712328767123288</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9230769230769231</v>
@@ -767,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2945736434108527</v>
+        <v>0.28</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>364</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2857142857142857</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2080536912751678</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1388888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -1013,17 +1016,41 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.130952380952381</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>219</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7407407407407407</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7323943661971831</v>
+        <v>0.74</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6625</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6109660574412533</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,47 +1374,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>149</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>45</v>
-      </c>
-      <c r="M24">
-        <v>45</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4931506849315068</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.488135593220339</v>
+        <v>0.475</v>
       </c>
       <c r="L27">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4794117647058824</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>177</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4761904761904762</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4651162790697674</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4184100418410042</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.3428571428571429</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,47 +1608,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.3285714285714286</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>47</v>
-      </c>
-      <c r="K33">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
-      <c r="M33">
-        <v>22</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.2638888888888889</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1633,47 +1660,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.1007194244604317</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.09375</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1685,73 +1712,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>377</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.06823266219239374</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>833</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.06163328197226502</v>
+        <v>0.04404873477038426</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>609</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.05327413984461709</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1763,15 +1790,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>853</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.03930635838150289</v>
+        <v>0.03781979977753059</v>
       </c>
       <c r="L40">
         <v>34</v>
@@ -1789,111 +1816,111 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>831</v>
+        <v>865</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.03658536585365853</v>
+        <v>0.03690888119953864</v>
       </c>
       <c r="L41">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2054</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.02941176470588235</v>
+        <v>0.02711426726920594</v>
       </c>
       <c r="L42">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M42">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="N42">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O42">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3003</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.02481902792140641</v>
+        <v>0.01966873706004141</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.01849529780564263</v>
+        <v>0.01662484316185696</v>
       </c>
       <c r="L44">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N44">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="O44">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,109 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>fresh</t>
@@ -136,61 +154,67 @@
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>join</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>stock</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -551,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,16 +665,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>19</v>
       </c>
-      <c r="K4">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
       <c r="M4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.660958904109589</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C5">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.28</v>
+        <v>0.2984496124031008</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2674418604651163</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2281879194630873</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2222222222222222</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -1020,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.130952380952381</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,47 +1086,71 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.05898123324396783</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>351</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L12">
-        <v>108</v>
-      </c>
-      <c r="M12">
-        <v>108</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7547169811320755</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7446808510638298</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7416666666666667</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.74</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6349206349206349</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6083550913838121</v>
+        <v>0.68125</v>
       </c>
       <c r="L21">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5833333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.4943820224719101</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.488135593220339</v>
+        <v>0.5639686684073107</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.4852941176470588</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L26">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.475</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.4743589743589743</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L29">
         <v>44</v>
       </c>
-      <c r="K29">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L29">
-        <v>21</v>
-      </c>
       <c r="M29">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4657534246575342</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4615384615384616</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4100418410041841</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3285714285714286</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.09569377990430622</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>378</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.0889423076923077</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1686,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>379</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.06040268456375839</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M36">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1712,73 +1760,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>840</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.04791344667697063</v>
+        <v>0.34375</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>616</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.04404873477038426</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L38">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2040</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.0411522633744856</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1790,47 +1838,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>466</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.03781979977753059</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>865</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.03690888119953864</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1842,85 +1890,267 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>835</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.02711426726920594</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L42">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M42">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3014</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.01966873706004141</v>
+        <v>0.06228373702422145</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>947</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.01662484316185696</v>
+        <v>0.06182380216383308</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>0.93</v>
+      </c>
+      <c r="O44">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>51</v>
+      </c>
+      <c r="N45">
+        <v>0.98</v>
+      </c>
+      <c r="O45">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46">
+        <v>0.04793233082706767</v>
+      </c>
+      <c r="L46">
+        <v>102</v>
+      </c>
+      <c r="M46">
+        <v>117</v>
+      </c>
+      <c r="N46">
+        <v>0.87</v>
+      </c>
+      <c r="O46">
+        <v>0.13</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.04536082474226804</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>0.96</v>
+      </c>
+      <c r="O47">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48">
+        <v>0.03132063287051986</v>
+      </c>
+      <c r="L48">
+        <v>97</v>
+      </c>
+      <c r="M48">
+        <v>107</v>
+      </c>
+      <c r="N48">
+        <v>0.91</v>
+      </c>
+      <c r="O48">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>0.9</v>
+      </c>
+      <c r="O49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N44">
-        <v>0.8</v>
-      </c>
-      <c r="O44">
-        <v>0.2</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3135</v>
+      <c r="K50">
+        <v>0.0216076058772688</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>29</v>
+      </c>
+      <c r="N50">
+        <v>0.86</v>
+      </c>
+      <c r="O50">
+        <v>0.14</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0.02134337727558067</v>
+      </c>
+      <c r="L51">
+        <v>68</v>
+      </c>
+      <c r="M51">
+        <v>83</v>
+      </c>
+      <c r="N51">
+        <v>0.82</v>
+      </c>
+      <c r="O51">
+        <v>0.18</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
